--- a/biology/Botanique/Alsace-grand-cru/Alsace-grand-cru.xlsx
+++ b/biology/Botanique/Alsace-grand-cru/Alsace-grand-cru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un alsace grand cru[N 1], ou grand cru d'Alsace, est un vin blanc ou rouge (depuis 2022) français d'appellation d'origine contrôlée produit sur certaines parcelles du vignoble d'Alsace.
-Ce nom générique regroupe cinquante-et-une appellations sur quarante-sept communes. Ces crus sont tous parmi les meilleures expositions du vignoble, avec des contraintes de production plus rigoureuses que pour l'appellation alsace, cette dernière restant incluse dans les appellations grand cru[2].
+Ce nom générique regroupe cinquante-et-une appellations sur quarante-sept communes. Ces crus sont tous parmi les meilleures expositions du vignoble, avec des contraintes de production plus rigoureuses que pour l'appellation alsace, cette dernière restant incluse dans les appellations grand cru.
 </t>
         </is>
       </c>
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période médiévale
-En Alsace, la notion de cru est très ancienne. À Marlenheim, en 613, le futur roi Dagobert donnait des vignes sur le Steinklotz à l’abbaye de Haslach[N 4]. 
+          <t>Période médiévale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Alsace, la notion de cru est très ancienne. À Marlenheim, en 613, le futur roi Dagobert donnait des vignes sur le Steinklotz à l’abbaye de Haslach[N 4]. 
 À Rouffach, en 762, Heddo, l’évêque de Strasbourg, fondait l’abbaye d’Ettenheim et constituait sa mense avec les vignes du Vorbourg. 
 À Bennwihr, en 777, les missi dominici de passage en Alsace notaient dans leur rapport à Charlemagne la qualité des vins de Beno Villare (le « domaine de Beno ») dont les vignes s’étalaient sur le Marckrain. 
 À Sigolsheim, une charte de 783 notifiait que le vignoble de Sigoltesberg (le Mambourg actuel) était la propriété conjointe des seigneurs et des monastères du voisinage. 
@@ -524,10 +541,6 @@
 À Dahlenheim et Scharrachbergheim, une charte cite pour la première fois le vignoble de l’Engelberg en 884[N 5].  
 À Wintzenheim, au IXe siècle, une donation de l’abbaye de Murbach mentionna le Hengst pour la première fois. Les seigneurs du Haut-Landsberg et le bailli de Kayserberg s’en partagèrent les droits féodaux jusqu’à la Révolution française. 
 Les quarante-trois autres lieux-dits d’Alsace ont tous, entre l’an mil et la Renaissance, été la propriété ou le fief de la noblesse ou du clergé. Les cartulaires et chartriers alsaciens ont servi de base historique à la délimitation des lieux-dits des grands crus d’Alsace.
-Période contemporaine
-Le statut de l'Alsace est à part parmi les vignobles français. Après sa rétrocession à la France par le traité de Versailles en 1919, les lois allemandes appliquées de 1871 à 1918 (période dite du Reichsland) sont maintenues comme droit local, ce qui va retarder la création des appellations du vignoble d'Alsace[3]. Après l'ordonnance de 1945 définissant l'appellation d'origine des vins d'Alsace, ce n'est qu'en 1962[4] qu'est obtenue par décret l'appellation d'origine contrôlée alsace, mais aucune mention de dénomination géographique ou de cru ne s'y trouve.
-La situation commence à changer par le décret du 20 novembre 1975[5], qui crée l'appellation « alsace grand cru » (une appellation qui doit d'abord respecter la règlementation de l'appellation alsace). La démarche fait rapidement des adeptes. Ainsi, le 23 novembre 1983[6], ce sont vingt-quatre autres lieux-dits qui sont sélectionnés comme grands crus d'Alsace. L’Institut national de l'origine et de la qualité accepte en 1992 un deuxième dossier augmentant le nombre de grands crus. Le décret du 17 décembre 1992[7] en rajoute vingt-cinq.
-Ces textes sont modifiés dès 1984[8] (mentions vendanges tardives et sélection de grains nobles), puis notamment en 1993[9] (rajout de Rouffach dans la liste des communes), en 2001[10] (réduction du rendement de 70 à 55 hectolitres par hectare), en 2005[11] (dérogations pour l'encépagement), en 2007[12] (cinquante-et-unième lieu-dit) et en 2011 (les dénominations deviennent des appellations)[2].
 </t>
         </is>
       </c>
@@ -553,25 +566,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les alsaces grands crus sont produits en France, dans la collectivité européenne d'Alsace, sur le territoire de 47 communes (14 dans le Bas-Rhin et 33 dans le Haut-Rhin), de Marlenheim au nord, à hauteur de Strasbourg, jusqu'à Thann, au sud, à hauteur de Mulhouse.
-Géologie et orographie
-Les grands crus se trouvent sur plusieurs coteaux des collines sous-vosgiennes, ces dernières correspondant à une série de failles formant la transition entre les Vosges cristallines et la plaine du Rhin sédimentaire sous forme d'un escarpement.
-En conséquence, le haut des pentes est généralement constitué des roches anciennes, plutoniques et métamorphiques telles que du granite, du gneiss, du schiste ou de l'ardoise.
-Le bas des coteaux est lui généralement formé de couches de grès, de calcaires ou de marne recouvertes par des arènes granitiques ou du lœss.
-Climatologie
-À l'ouest, les Vosges protègent du vent et de la pluie la région de production des vins d'Alsace. Les vents d'ouest dominants perdent leur humidité sur le versant occidental des Vosges et parviennent sous forme de foehn, secs et chauds, dans la plaine d'Alsace. La quantité moyenne de précipitations est la plus faible de tous les vignobles français.
-De ce fait, le climat est plus tempéré (avec une température annuelle moyenne plus haute de 1,5 °C) que ce qui serait attendu à cette latitude. Le climat est continental et sec avec des printemps chauds, des étés secs et ensoleillés, de longs automnes et des hivers froids.
-La station météo de l'aéroport de Strasbourg Entzheim (150 mètres d'altitude) se trouve à l'extrémité nord de l'aire de production, mais au bord du Rhin. Ses valeurs climatiques de 1961 à 1990 sont :
-Source : www.infoclimat.fr : Strasbourg-Entzheim (1961-1990)[13]
-La station météo de la base de Colmar-Meyenheim (207 mètres) se trouve au milieu de l'aire de production, mais en plaine. Ses valeurs climatiques de 1961 à 1990 sont :
-Source : www.infoclimat.fr : Colmar-Meyenheim (1961-1990)[14]
-La station météo de l'aéroport Bâle-Mulhouse (267 mètres) se trouve à l'extrémité sud de l'aire de production, encore une fois en plaine. Ses valeurs climatiques de 1961 à 1990 sont :
-Source : www.infoclimat.fr : Bâle-Mulhouse (1961-1990)[15]
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le statut de l'Alsace est à part parmi les vignobles français. Après sa rétrocession à la France par le traité de Versailles en 1919, les lois allemandes appliquées de 1871 à 1918 (période dite du Reichsland) sont maintenues comme droit local, ce qui va retarder la création des appellations du vignoble d'Alsace. Après l'ordonnance de 1945 définissant l'appellation d'origine des vins d'Alsace, ce n'est qu'en 1962 qu'est obtenue par décret l'appellation d'origine contrôlée alsace, mais aucune mention de dénomination géographique ou de cru ne s'y trouve.
+La situation commence à changer par le décret du 20 novembre 1975, qui crée l'appellation « alsace grand cru » (une appellation qui doit d'abord respecter la règlementation de l'appellation alsace). La démarche fait rapidement des adeptes. Ainsi, le 23 novembre 1983, ce sont vingt-quatre autres lieux-dits qui sont sélectionnés comme grands crus d'Alsace. L’Institut national de l'origine et de la qualité accepte en 1992 un deuxième dossier augmentant le nombre de grands crus. Le décret du 17 décembre 1992 en rajoute vingt-cinq.
+Ces textes sont modifiés dès 1984 (mentions vendanges tardives et sélection de grains nobles), puis notamment en 1993 (rajout de Rouffach dans la liste des communes), en 2001 (réduction du rendement de 70 à 55 hectolitres par hectare), en 2005 (dérogations pour l'encépagement), en 2007 (cinquante-et-unième lieu-dit) et en 2011 (les dénominations deviennent des appellations).
 </t>
         </is>
       </c>
@@ -597,21 +605,252 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les alsaces grands crus sont produits en France, dans la collectivité européenne d'Alsace, sur le territoire de 47 communes (14 dans le Bas-Rhin et 33 dans le Haut-Rhin), de Marlenheim au nord, à hauteur de Strasbourg, jusqu'à Thann, au sud, à hauteur de Mulhouse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grands crus se trouvent sur plusieurs coteaux des collines sous-vosgiennes, ces dernières correspondant à une série de failles formant la transition entre les Vosges cristallines et la plaine du Rhin sédimentaire sous forme d'un escarpement.
+En conséquence, le haut des pentes est généralement constitué des roches anciennes, plutoniques et métamorphiques telles que du granite, du gneiss, du schiste ou de l'ardoise.
+Le bas des coteaux est lui généralement formé de couches de grès, de calcaires ou de marne recouvertes par des arènes granitiques ou du lœss.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'ouest, les Vosges protègent du vent et de la pluie la région de production des vins d'Alsace. Les vents d'ouest dominants perdent leur humidité sur le versant occidental des Vosges et parviennent sous forme de foehn, secs et chauds, dans la plaine d'Alsace. La quantité moyenne de précipitations est la plus faible de tous les vignobles français.
+De ce fait, le climat est plus tempéré (avec une température annuelle moyenne plus haute de 1,5 °C) que ce qui serait attendu à cette latitude. Le climat est continental et sec avec des printemps chauds, des étés secs et ensoleillés, de longs automnes et des hivers froids.
+La station météo de l'aéroport de Strasbourg Entzheim (150 mètres d'altitude) se trouve à l'extrémité nord de l'aire de production, mais au bord du Rhin. Ses valeurs climatiques de 1961 à 1990 sont :
+Source : www.infoclimat.fr : Strasbourg-Entzheim (1961-1990)
+La station météo de la base de Colmar-Meyenheim (207 mètres) se trouve au milieu de l'aire de production, mais en plaine. Ses valeurs climatiques de 1961 à 1990 sont :
+Source : www.infoclimat.fr : Colmar-Meyenheim (1961-1990)
+La station météo de l'aéroport Bâle-Mulhouse (267 mètres) se trouve à l'extrémité sud de l'aire de production, encore une fois en plaine. Ses valeurs climatiques de 1961 à 1990 sont :
+Source : www.infoclimat.fr : Bâle-Mulhouse (1961-1990)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les alsaces grands crus sont produits sur le territoire des communes suivantes :
 département du Bas-Rhin : Andlau, Barr, Bergbieten, Blienschwiller, Dahlenheim, Dambach-la-Ville, Eichhoffen, Kintzheim, Marlenheim, Mittelbergheim, Molsheim, Nothalten, Scharrachbergheim et Wolxheim ;
 département du Haut-Rhin : Ammerschwihr, Beblenheim, Bennwihr, Bergheim, Bergholtz, Eguisheim, Guebwiller, Gueberschwihr, Hattstatt, Hunawihr, Ingersheim, Katzenthal, Kientzheim, Mittelwihr, Niedermorschwihr, Orschwihr, Pfaffenheim, Ribeauvillé, Riquewihr, Rodern, Rouffach, Saint-Hippolyte, Sigolsheim, Soultzmatt, Thann, Turckheim, Vieux-Thann, Vœgtlinshoffen, Westhalten, Wettolsheim, Wintzenheim, Wuenheim et Zellenberg.
 Tous situés entre 200 et 430 mètres d'altitude, les grands crus sont généralement exposés vers le sud  ou le sud-est avec des déclinaisons de sud-ouest à est-sud-est ; leur superficie variant entre 3,23 hectares pour le Kanzlerberg de Bergheim et 80,28 hectares pour le Schlossberg de Kientzheim.
-Liste des grands crus
-Cette liste est établie dans l'ordre de publication des décrets, puis dans l'ordre alphabétique, en donnant d'abord le nom du grand cru puis, entre parenthèses, le nom de la (ou des) commune(s).
-Décret du 20 novembre 1975
-Schlossberg (à Kientzheim, 48° 08′ 23″ N, 7° 16′ 32″ E).
-Décret du 23 novembre 1983
-Altenberg (à Bergbieten, 48° 35′ 09″ N, 7° 27′ 49″ E) ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des grands crus</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette liste est établie dans l'ordre de publication des décrets, puis dans l'ordre alphabétique, en donnant d'abord le nom du grand cru puis, entre parenthèses, le nom de la (ou des) commune(s).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Liste des grands crus</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Décret du 20 novembre 1975</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Schlossberg (à Kientzheim, 48° 08′ 23″ N, 7° 16′ 32″ E).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Liste des grands crus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Décret du 23 novembre 1983</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Altenberg (à Bergbieten, 48° 35′ 09″ N, 7° 27′ 49″ E) ;
 Altenberg (à Bergheim, 48° 12′ 35″ N, 7° 21′ 23″ E) ;
 Brand (à Turckheim, 48° 05′ 37″ N, 7° 16′ 25″ E) ;
 Eichberg (à Eguisheim, 48° 01′ 53″ N, 7° 17′ 22″ E) ;
@@ -634,9 +873,47 @@
 Sommerberg (à Niedermorschwihr et Katzenthal, 48° 06′ 07″ N, 7° 16′ 40″ E) ;
 Sonnenglanz (à Beblenheim, 48° 09′ 48″ N, 7° 19′ 24″ E) ;
 Spiegel (à Bergholtz et Guebwiller, 47° 54′ 56″ N, 7° 13′ 57″ E) ;
-Wiebelsberg (à Andlau, 48° 23′ 23″ N, 7° 25′ 23″ E).
-Décret du 17 décembre 1992
-Altenberg (à Wolxheim, 48° 34′ 18″ N, 7° 30′ 28″ E) ;
+Wiebelsberg (à Andlau, 48° 23′ 23″ N, 7° 25′ 23″ E).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste des grands crus</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Décret du 17 décembre 1992</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Altenberg (à Wolxheim, 48° 34′ 18″ N, 7° 30′ 28″ E) ;
 Bruderthal (à Molsheim, 48° 32′ 51″ N, 7° 29′ 04″ E) ;
 Engelberg (à Dahlenheim et Scharrachbergheim, 48° 34′ 57″ N, 7° 29′ 44″ E) ;
 Florimont (à Ingersheim et Katzenthal, 48° 06′ 11″ N, 7° 17′ 49″ E) ;
@@ -660,11 +937,83 @@
 Wineck-Schlossberg (à Katzenthal et Ammerschwihr, 48° 06′ 33″ N, 7° 16′ 41″ E) ;
 Winzenberg (à Blienschwiller, 48° 20′ 37″ N, 7° 25′ 00″ E) ;
 Zinnkoepflé (à Soultzmatt et Westhalten, 47° 57′ 32″ N, 7° 14′ 59″ E) ;
-Zotzenberg (à Mittelbergheim, 48° 23′ 55″ N, 7° 26′ 27″ E).
-Décret du 12 janvier 2007
-Kaefferkopf (à Ammerschwihr, 48° 07′ 22″ N, 7° 16′ 44″ E).
-Encépagement
-Les cépages admis pour les AOC alsaces grands crus sont au nombre de sept, alors que l'appellation alsace en admet treize en comptant toutes les variétés. Ce sont le riesling B[N 3], le gewurztraminer Rs, le pinot gris G, le muscat blanc à petits grains B, le muscat rose à petits grains Rs, le muscat ottonel B et le sylvaner B, ce dernier admis depuis la récolte 2005 uniquement sur le Zotzenberg de Mittelbergheim[N 6]. Les six premiers cépages sont considérés comme des cépages nobles, dont le riesling, le gewurztraminer et le pinot gris sont les plus utilisés.
+Zotzenberg (à Mittelbergheim, 48° 23′ 55″ N, 7° 26′ 27″ E).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Liste des grands crus</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Décret du 12 janvier 2007</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Kaefferkopf (à Ammerschwihr, 48° 07′ 22″ N, 7° 16′ 44″ E).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cépages admis pour les AOC alsaces grands crus sont au nombre de sept, alors que l'appellation alsace en admet treize en comptant toutes les variétés. Ce sont le riesling B[N 3], le gewurztraminer Rs, le pinot gris G, le muscat blanc à petits grains B, le muscat rose à petits grains Rs, le muscat ottonel B et le sylvaner B, ce dernier admis depuis la récolte 2005 uniquement sur le Zotzenberg de Mittelbergheim[N 6]. Les six premiers cépages sont considérés comme des cépages nobles, dont le riesling, le gewurztraminer et le pinot gris sont les plus utilisés.
 Le riesling B donne de meilleurs résultats sur les terrains granitiques. C'est un cépage au débourrement et à la maturation tardives, nécessitant des coteaux bien exposés au Soleil, et dont les vendanges peuvent avoir lieu vers la mi-octobre. Par contre il résiste bien aux gelées d'hiver.
 Le gewurztraminer Rs (signifie « traminer aromatique » en allemand) est un cépage rose, aux baies orange ou tirant vers le violet. Ce proche parent du savagnin B et du savagnin rose Rs (appelé en Alsace klevener de Heiligenstein) est plutôt vigoureux, produit de gros rendements et donne de meilleurs résultats sur des sols marneux ou calcaires que sur des sols granitiques ou schisteux.
 Le pinot gris G (anciennement appelé « tokay d'Alsace » localement et toujours appelé Grauburgunder (« bourguignon gris ») en Allemagne, « malvoisie » en Valais ou pinot grigio en Italie) est un cépage fragile et de maturité assez précoce. Il est issu d’une mutation du pinot noir et est donc d’origine bourguignonne, où il est appelé « pinot beurot ». Il donne de meilleurs résultats sur des sols composés de cailloutis calcaires, à condition qu'ils soient bien drainés grâce à une exposition en coteau.
@@ -673,90 +1022,307 @@
 			Grappes de gewurztraminer Rs.
 			Grappes de pinot gris G.
 			Grappes de muscat blanc à petits grains B.
-Rendements
-Les conditions de production sont plus drastiques que pour l'appellation alsace, le rendement a été limité à 70 hectolitres par hectare en 1975, avant d'être réduit en 2001 à 55 hectolitres par hectare avec 10 % vol. d'alcool potentiel minimum pour le riesling ou les muscats et 11 % vol. d'alcool potentiel pour le gewurztraminer ou le pinot gris ; ils doivent être récoltés manuellement à partir de vignes âgées d'au moins deux ans[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les conditions de production sont plus drastiques que pour l'appellation alsace, le rendement a été limité à 70 hectolitres par hectare en 1975, avant d'être réduit en 2001 à 55 hectolitres par hectare avec 10 % vol. d'alcool potentiel minimum pour le riesling ou les muscats et 11 % vol. d'alcool potentiel pour le gewurztraminer ou le pinot gris ; ils doivent être récoltés manuellement à partir de vignes âgées d'au moins deux ans.
 Comme les autres vins d’Alsace, les grands crus peuvent être récoltés en vendanges tardives ou après sélection de grains nobles. Cette spécialité alsacienne, inaugurée en 1984, permet aux alsaces grands crus de prendre encore plus de puissance.
 Le rendement réel de l'ensemble de l'appellation est de 50 hectolitres par hectare en moyenne pour l'année 2009[N 7]. Bien que ce soit très en dessous des rendements moyens du vignoble d'Alsace, il s'agit d'un rendement dans la moyenne française des AOC.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alsace-grand-cru</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Titres alcoométriques
-Les raisins récoltés doivent présenter un titre alcoométrique volumique naturel moyen minimum de 12,5 % vol. pour les cépages pinot gris G et gewurztraminer Rs et de 11 % vol. pour le riesling B[N 3] et les muscats.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Titres alcoométriques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les raisins récoltés doivent présenter un titre alcoométrique volumique naturel moyen minimum de 12,5 % vol. pour les cépages pinot gris G et gewurztraminer Rs et de 11 % vol. pour le riesling B[N 3] et les muscats.
 Les vins issus d'un assemblage présentent un titre alcoométrique volumique naturel moyen minimum de 12 % vol.
 Ne peut être considéré à bonne maturité tout lot unitaire de vendanges présentant une richesse en sucre inférieure à 193 grammes par litre de moût pour les cépages pinot gris G et gewurztraminer Rs et à 168 grammes par litre de moût pour les autres cépages. Lorsqu'une autorisation d'enrichissement est accordée, l'augmentation du titre alcoométrique volumique naturel moyen minimum ne peut dépasser 1,5 % vol.
 Sur l'avis du syndicat des producteurs de chaque cru, le comité régional d'experts des vins d'Alsace peut proposer annuellement au comité national des vins et eaux-de-vie de l'Institut national des appellations d'origine, pour chaque appellation et pour chaque cépage, un titre alcoométrique naturel moyen minimum supérieur et une richesse en sucre des lots unitaires supérieure à ceux susvisés, ainsi qu'un taux d'enrichissement maximum inférieur au taux susvisé.
-Vendanges tardives et grains nobles
-Les vendanges tardives désignent des vins faits à partir de raisins dont la récolte a été retardée pour les obtenir en surmaturité, d'où des vins riches en sucre et en alcool, aux goûts plus puissants, et souvent moelleux. Selon la législation, le moût doit avoir au moins 243 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 14,4 % vol. d'alcool potentiel), ou au moins 220 grammes de sucre par litre si c'est du riesling ou un muscat (soit 13,1 % vol. d'alcool potentiel) ; aucune chaptalisation n'est permise.
-Quant à une sélection de grains nobles, il s'agit d'un vin fait à partir de raisins récoltés par tris sélectifs successifs des grains atteints de pourriture noble (le champignon Botrytis cinerea), ce qui donne des vins encore plus concentrés, plus sucrés, liquoreux. Selon la législation, le moût doit avoir au moins 279 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 16,6 % vol. d'alcool potentiel), ou au moins 256 grammes de sucre par litre si c'est du riesling ou un muscat (soit 15,2 % vol. d'alcool potentiel). Là-aussi aucune chaptalisation n'est permise[16],[17].
-Vinification et élevage
-À l'arrivée au chai, le raisin est foulé et pressé pour séparer le moût du marc de raisin. Les pressoirs pneumatiques remplacent progressivement les pressoirs horizontaux à plateau. Le moût est mis en cuve en stabulation pour le dépôt des bourbes. Le soutirage du jus clair est le débourbage. Les bourbes peuvent être filtrées pour donner aussi un bon vin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Vendanges tardives et grains nobles</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vendanges tardives désignent des vins faits à partir de raisins dont la récolte a été retardée pour les obtenir en surmaturité, d'où des vins riches en sucre et en alcool, aux goûts plus puissants, et souvent moelleux. Selon la législation, le moût doit avoir au moins 243 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 14,4 % vol. d'alcool potentiel), ou au moins 220 grammes de sucre par litre si c'est du riesling ou un muscat (soit 13,1 % vol. d'alcool potentiel) ; aucune chaptalisation n'est permise.
+Quant à une sélection de grains nobles, il s'agit d'un vin fait à partir de raisins récoltés par tris sélectifs successifs des grains atteints de pourriture noble (le champignon Botrytis cinerea), ce qui donne des vins encore plus concentrés, plus sucrés, liquoreux. Selon la législation, le moût doit avoir au moins 279 grammes de sucre par litre si c'est du gewurztraminer ou du pinot gris (soit 16,6 % vol. d'alcool potentiel), ou au moins 256 grammes de sucre par litre si c'est du riesling ou un muscat (soit 15,2 % vol. d'alcool potentiel). Là-aussi aucune chaptalisation n'est permise,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'arrivée au chai, le raisin est foulé et pressé pour séparer le moût du marc de raisin. Les pressoirs pneumatiques remplacent progressivement les pressoirs horizontaux à plateau. Le moût est mis en cuve en stabulation pour le dépôt des bourbes. Le soutirage du jus clair est le débourbage. Les bourbes peuvent être filtrées pour donner aussi un bon vin.
 La fermentation alcoolique débute sous l'action de levures indigènes ou de levures sélectionnées introduites lors du levurage. Cette opération transforme le sucre du raisin en éthanol. La maîtrise de la température de fermentation par un système de réfrigération permet d'exprimer le potentiel aromatique du produit. 
 La fermentation achevée, le vin est soutiré afin d'éliminer les lies. La fermentation malolactique n'est généralement pas réalisée, bloquée par un sulfitage du vin. Ce dernier peut être stocké en cuve pour le préparer à l'embouteillage ou élevé en barrique ou foudres de bois de chêne.
-Le vin est soutiré, filtré et stabilisé avant le conditionnement exclusivement en bouteilles[18],[19].
-Mentions sur l'étiquette
-L’étiquette doit absolument comporter le nom complet de l'appellation, soit « alsace grand cru » suivi de la mention du lieu-dit et du millésime : par exemple « alsace grand cru Kessler ». On peut y rajouter l'indication du cépage, ainsi que les mentions vendanges tardives et sélection de grains nobles. 
-Gastronomie
-En plus d'une dégustation à l'apéritif, les alsaces grands crus s'accordent classiquement avec la cuisine alsacienne.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Alsace-grand-cru</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Le vin est soutiré, filtré et stabilisé avant le conditionnement exclusivement en bouteilles,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mentions sur l'étiquette</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’étiquette doit absolument comporter le nom complet de l'appellation, soit « alsace grand cru » suivi de la mention du lieu-dit et du millésime : par exemple « alsace grand cru Kessler ». On peut y rajouter l'indication du cépage, ainsi que les mentions vendanges tardives et sélection de grains nobles. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus d'une dégustation à l'apéritif, les alsaces grands crus s'accordent classiquement avec la cuisine alsacienne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production se limite à 48 294 hectolitres de vins, soit 4 % de la production de l'ensemble du vignoble d'Alsace[20].
-Bouteilles
-Les grand crus, comme tous les vins d'Alsace, doivent être mis en bouteille uniquement dans des flûtes, bouteilles du type « vin du Rhin » de 75 centilitres, règlementées par des décrets[21].
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production se limite à 48 294 hectolitres de vins, soit 4 % de la production de l'ensemble du vignoble d'Alsace.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alsace-grand-cru</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Économie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bouteilles</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grand crus, comme tous les vins d'Alsace, doivent être mis en bouteille uniquement dans des flûtes, bouteilles du type « vin du Rhin » de 75 centilitres, règlementées par des décrets.
 </t>
         </is>
       </c>
